--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-1.754348105964825</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.35203420158053</v>
+        <v>-10.61373624308379</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.196946683245972</v>
+        <v>-3.242232958775503</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.378313995625077</v>
+        <v>-8.332494119032914</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.935324068863133</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.90938662585565</v>
+        <v>-11.18918222988617</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.294458154811148</v>
+        <v>-3.293135832224134</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.260522546958067</v>
+        <v>-8.171419517171159</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.178343972122691</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.06494936822104</v>
+        <v>-11.33675866751811</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.193856899775325</v>
+        <v>-3.19427585346626</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.881853871866825</v>
+        <v>-7.774906033306643</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.433896523948386</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.52527473613613</v>
+        <v>-11.79051169940665</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.337531831160427</v>
+        <v>-3.325644020180139</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.585182289473312</v>
+        <v>-7.468703254444353</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.669271334344899</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.94526271899586</v>
+        <v>-12.18034810882189</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.414959710166395</v>
+        <v>-3.377266970285065</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.30308244014264</v>
+        <v>-7.172123318170733</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.846915388083447</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.48920862516105</v>
+        <v>-12.75017749770517</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.292795432350248</v>
+        <v>-3.223563334923201</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.987427018628624</v>
+        <v>-6.818958449015172</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.931986748900571</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.06449750432933</v>
+        <v>-13.3157518881649</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.2821121132314</v>
+        <v>-3.145035702478528</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.823131710267804</v>
+        <v>-6.637184916360647</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.894392894052193</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.48300605696795</v>
+        <v>-13.71581338609952</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.399275131362007</v>
+        <v>-3.279048514366436</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.677820241027487</v>
+        <v>-6.455712506671483</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.709356011665224</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.16438186606274</v>
+        <v>-14.46859461489309</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.273327178024602</v>
+        <v>-3.125096125250579</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.64151528524738</v>
+        <v>-6.390787776879363</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.365133049216205</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.60844659384841</v>
+        <v>-14.88989182803699</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.355599209082008</v>
+        <v>-3.178106859456728</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.650130020517236</v>
+        <v>-6.422890103447275</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.868017875256873</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.16905900153112</v>
+        <v>-15.4785872253152</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.392558780004201</v>
+        <v>-3.213128769558345</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.38848034822534</v>
+        <v>-6.093042625652829</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.239993338512688</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.24960284861342</v>
+        <v>-15.56275764028466</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.490030974660852</v>
+        <v>-3.358963930912332</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.939492914571186</v>
+        <v>-5.639721639758063</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.5259536506814594</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.94117756162191</v>
+        <v>-16.27603939140474</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.182951011508167</v>
+        <v>-3.013405689707814</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.576679018221274</v>
+        <v>-5.265059209336389</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.227935364187827</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.53954817070016</v>
+        <v>-16.89478162370471</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.119819927205364</v>
+        <v>-2.973644365977492</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.527713805593218</v>
+        <v>-5.191611390394305</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9684112085927563</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.30687494795088</v>
+        <v>-17.67305356613112</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.92348775379084</v>
+        <v>-2.739148129779337</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.285283633872977</v>
+        <v>-4.936966100122733</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.659752249619574</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.81740929726399</v>
+        <v>-18.17841645582174</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.793009863670198</v>
+        <v>-2.647947148183873</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.046846614519461</v>
+        <v>-4.732503606643498</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.272500212446142</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.23898144876757</v>
+        <v>-18.62049115357547</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.876486386589043</v>
+        <v>-2.692238408697432</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.959939908256084</v>
+        <v>-4.657641818994508</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.789315254465556</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.81336695903978</v>
+        <v>-19.24049024694825</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.656182206671319</v>
+        <v>-2.450515221330644</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.596288104524301</v>
+        <v>-4.302172704538803</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.201721810302677</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.13469134768426</v>
+        <v>-19.58966196373708</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.41301886599194</v>
+        <v>-2.232279625261912</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.224519073030647</v>
+        <v>-3.999190632175579</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.502287124364133</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.8240534615125</v>
+        <v>-20.31077291195651</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.17234306285249</v>
+        <v>-1.9835520558748</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.187821348165289</v>
+        <v>-4.019562255397305</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.693967196153545</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.38873757537899</v>
+        <v>-20.9256921918267</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.973340059658254</v>
+        <v>-1.7502341269324</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.164189741535973</v>
+        <v>-4.021748669971872</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.777921827833488</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.58599930229528</v>
+        <v>-21.13392526852435</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.843359677045597</v>
+        <v>-1.615173930817154</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.993662497022491</v>
+        <v>-3.906457851147633</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.762180157159749</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.119065504799</v>
+        <v>-21.71460817646343</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.645587350318483</v>
+        <v>-1.463355587064498</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.140689057935075</v>
+        <v>-4.084146585315539</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.654494449275144</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.28608401215089</v>
+        <v>-21.90990605795346</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.456901081763527</v>
+        <v>-1.277183040655153</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.150861777243096</v>
+        <v>-4.050302982469677</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.464269801098307</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.39777444769366</v>
+        <v>-21.99621051828612</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.469901738485361</v>
+        <v>-1.305580245518857</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.356620408703663</v>
+        <v>-4.249031047304237</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.201356574366784</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.47782078726797</v>
+        <v>-22.09539780461503</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.300736093467419</v>
+        <v>-1.077695622255773</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.590894075753509</v>
+        <v>-4.432113810242934</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.876865594346591</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.40024889293075</v>
+        <v>-21.98687570635997</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.251469757874003</v>
+        <v>-1.06189321272581</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.624227078788544</v>
+        <v>-4.463797183119912</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.499362925136473</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.45840490215369</v>
+        <v>-22.08606299268888</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.098289814625808</v>
+        <v>-0.9163722666400248</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.935483486547739</v>
+        <v>-4.790227569872668</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.082633850223482</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.4978781952215</v>
+        <v>-22.13260612929122</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.190014488334941</v>
+        <v>-0.9909722082321799</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.119718372136509</v>
+        <v>-4.954941831924423</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.634657088609115</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.33935659241388</v>
+        <v>-21.97107329683</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.257308924941413</v>
+        <v>-1.074920054053327</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.164206017192694</v>
+        <v>-5.000764891870465</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.170995863042463</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.22102835933036</v>
+        <v>-21.81044383326487</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.345380846157705</v>
+        <v>-1.158920269085842</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.476850209053112</v>
+        <v>-5.280979449591928</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7016066101888878</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.17892351339137</v>
+        <v>-21.81934659919724</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.417506342512773</v>
+        <v>-1.214994602156955</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.383973412693908</v>
+        <v>-5.200841463897723</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2397163345459505</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.786285351168</v>
+        <v>-21.41815916321823</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.56546245692712</v>
+        <v>-1.396715765600113</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.316089822459558</v>
+        <v>-5.104914160976396</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.2027565598669319</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.52240998739302</v>
+        <v>-21.14462167994605</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.594056046333449</v>
+        <v>-1.409703330019105</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.281460681443193</v>
+        <v>-5.099297563057295</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6205120595520307</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.28822796646306</v>
+        <v>-20.90817469062447</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.768956119996068</v>
+        <v>-1.575949391503342</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.172126860411939</v>
+        <v>-4.935368839176043</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.003831544978508</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.00305142596458</v>
+        <v>-20.59541266803848</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.775489179114089</v>
+        <v>-1.588072863934781</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.000499862459751</v>
+        <v>-4.830578047230867</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.355796877456316</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.68456806703675</v>
+        <v>-20.25914996185158</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.845441353197432</v>
+        <v>-1.67765039997787</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.632566875698723</v>
+        <v>-4.396515838816281</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.672565244460366</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.5567217297873</v>
+        <v>-20.13398754668468</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.784025360566895</v>
+        <v>-1.621798636055067</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.296513646357299</v>
+        <v>-4.063670223671079</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.96240728475673</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.18343399116401</v>
+        <v>-19.73791920111679</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.92074827914304</v>
+        <v>-1.689669133986575</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.446158667838228</v>
+        <v>-4.172781475554024</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.227915033164365</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.80775036112068</v>
+        <v>-19.32765879926846</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.776588932552794</v>
+        <v>-1.542799680708092</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.040415110470295</v>
+        <v>-3.777865252636199</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.477321777754703</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.25771653413408</v>
+        <v>-18.75500147297136</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.883553046769696</v>
+        <v>-1.668564341805713</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.944540176760335</v>
+        <v>-3.716684921456813</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.719099765449092</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.90974930920668</v>
+        <v>-18.37135772280026</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.166150403608353</v>
+        <v>-1.964109986154837</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.8559838403389</v>
+        <v>-3.634648551850558</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.960205334459804</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.72662726935946</v>
+        <v>-18.19271325052491</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.28141503782691</v>
+        <v>-2.104053611230047</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.671343093362037</v>
+        <v>-3.415352479251646</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.213813820972359</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.55314116440375</v>
+        <v>-17.9583872142637</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.19903826834677</v>
+        <v>-2.063074703335444</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.6210031889356</v>
+        <v>-3.364135390534814</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.484218893946724</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.12933022911423</v>
+        <v>-17.47179868684811</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.32032536187252</v>
+        <v>-2.186207811561878</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.4298555674464</v>
+        <v>-3.186472840972591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.784921079527347</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.19781606527931</v>
+        <v>-17.47055491807814</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.225249058635905</v>
+        <v>-2.048214939610085</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.312679457012952</v>
+        <v>-3.088725707956264</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.115996914477202</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.07065052777762</v>
+        <v>-17.34486881079757</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.36181486957795</v>
+        <v>-2.202258974845834</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.092597846243537</v>
+        <v>-2.856088578761634</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.484968956441774</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.61629524995836</v>
+        <v>-16.91359526288827</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.386899721822697</v>
+        <v>-2.218414876552524</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.050427538790337</v>
+        <v>-2.849136565952677</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.889459785661278</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.3352035079465</v>
+        <v>-16.57407257329379</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.57245692999848</v>
+        <v>-2.390369182075754</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.865917714841891</v>
+        <v>-2.657295052412865</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.326941531232275</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.88159449138922</v>
+        <v>-16.09511685843493</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.679866182512001</v>
+        <v>-2.527851454216719</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.769217966052903</v>
+        <v>-2.525390101282475</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.7929721918101</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.71872624403814</v>
+        <v>-15.89445113277979</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.586360955616394</v>
+        <v>-2.421332478296436</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.71784376970197</v>
+        <v>-2.437357456974709</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.27642620851918</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.26087532136014</v>
+        <v>-15.41587509470334</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.471279613637621</v>
+        <v>-2.331912049887447</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.735623116961033</v>
+        <v>-2.434058196658594</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.773388343857233</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.92529341492102</v>
+        <v>-15.05293027532501</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.678007075508476</v>
+        <v>-2.529906945762871</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.93136613674768</v>
+        <v>-2.648680317143009</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.266969309462343</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.54269704897726</v>
+        <v>-14.68772048755506</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.696297022578367</v>
+        <v>-2.537736142862223</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.96383504779516</v>
+        <v>-2.680049474751785</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.754381823668552</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.63330887694484</v>
+        <v>-14.77581859337703</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.536243620338266</v>
+        <v>-2.40892097520248</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.849683259318151</v>
+        <v>-2.579579142744379</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.220896887744944</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.4878010231619</v>
+        <v>-14.62961684754348</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.688114333302289</v>
+        <v>-2.563475610249056</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.035554682762136</v>
+        <v>-2.734762208327358</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.658686726388749</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.40603959191532</v>
+        <v>-14.51915708846783</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.552595906587582</v>
+        <v>-2.43137427457604</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.379384739991546</v>
+        <v>-3.084627817166804</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.056025062921211</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.06960668579149</v>
+        <v>-14.16994609477048</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.544033540529093</v>
+        <v>-2.441717193821004</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.612231346031644</v>
+        <v>-3.413205341585603</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.40259637974931</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75649117102876</v>
+        <v>-13.88305446259973</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.59657295183294</v>
+        <v>-2.48090245622629</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.782195621522932</v>
+        <v>-3.549037983568511</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.692379729510755</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.77398248762531</v>
+        <v>-13.89468042752318</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.45844915685273</v>
+        <v>-2.315769240483599</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.945522099473465</v>
+        <v>-3.721123212120159</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.916227449816216</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.58911917150014</v>
+        <v>-13.74885835847204</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.439373671612335</v>
+        <v>-2.29878852369788</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.119021296732019</v>
+        <v>-3.895473409063425</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.07596534631286</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.49617691362673</v>
+        <v>-13.67639246224308</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.527864546519561</v>
+        <v>-2.35203491935518</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.111165915026983</v>
+        <v>-3.860988283378318</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.16750106759605</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.28172499307925</v>
+        <v>-13.46195363399845</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.402047516210574</v>
+        <v>-2.230485979772595</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.196370621920936</v>
+        <v>-3.947109451471192</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.19704823194659</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.17605701684368</v>
+        <v>-13.40718853121151</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.381034370149604</v>
+        <v>-2.216451031126265</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.461869431248299</v>
+        <v>-4.204582679156577</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.16570828674729</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.10573825828077</v>
+        <v>-13.32502123857684</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.440067563662947</v>
+        <v>-2.262234814163781</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.415928540576682</v>
+        <v>-4.137000211887587</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.08178174541782</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.17973595394221</v>
+        <v>-13.45947918876137</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.566355916874236</v>
+        <v>-2.395304980247085</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.363376036969994</v>
+        <v>-4.09636170386687</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.948761378195259</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.24205531546882</v>
+        <v>-13.52846253243442</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.618306174550205</v>
+        <v>-2.40376260788284</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.470497258820997</v>
+        <v>-4.150079422426471</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.775722442928835</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.05380109290764</v>
+        <v>-13.36397083953098</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.419263894447444</v>
+        <v>-2.212182940399862</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.304290474245284</v>
+        <v>-3.988232374697054</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.570078063144949</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.19083822675199</v>
+        <v>-13.49650422119777</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.684396119295238</v>
+        <v>-2.49455772809021</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.255155061680286</v>
+        <v>-3.981162531162522</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.337599939049865</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.09887789159171</v>
+        <v>-13.38218223278382</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.724183627631244</v>
+        <v>-2.525246085951216</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.098453288967667</v>
+        <v>-3.768229317744689</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.088718480875759</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.22498295256321</v>
+        <v>-13.53053111628341</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.788244265435809</v>
+        <v>-2.59263216867758</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.120199603987774</v>
+        <v>-3.8552407624308</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.827327949852439</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.36222956325303</v>
+        <v>-13.70180462205888</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.790483049221745</v>
+        <v>-2.562349672204668</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.015251704408498</v>
+        <v>-3.767195025820193</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.564334464749972</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.59887293711722</v>
+        <v>-13.94469302437858</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.849856642608972</v>
+        <v>-2.607059886409163</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.078539896345402</v>
+        <v>-3.814183300719148</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.300115802907127</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.83742778719632</v>
+        <v>-14.100831828069</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.927690383003034</v>
+        <v>-2.678373659988044</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.933516457767602</v>
+        <v>-3.695357560127642</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.045768296847713</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.9758265205362</v>
+        <v>-14.26063647655511</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.084300509595761</v>
+        <v>-2.837785539388901</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.576633374604991</v>
+        <v>-3.382778829781432</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.802704124713677</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.46035955640564</v>
+        <v>-14.72406472024369</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.208598832775108</v>
+        <v>-2.93562431852512</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.309236181365578</v>
+        <v>-3.112134745437271</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.575078335096617</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.23771503763313</v>
+        <v>-15.52255117825772</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.422422322786178</v>
+        <v>-3.176509598510038</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.159132929285188</v>
+        <v>-2.979823932918787</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.365852927171707</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.65373605273182</v>
+        <v>-15.89991062306479</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.341106029836218</v>
+        <v>-3.059739349464683</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.143631642720585</v>
+        <v>-3.024651977848857</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.173935669947761</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.09578456587985</v>
+        <v>-16.27857929815603</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.550818536754986</v>
+        <v>-3.270996748118775</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.969281445777319</v>
+        <v>-2.865763790561669</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.001826321745033</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.73049940764673</v>
+        <v>-16.90060769846928</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.70118363489221</v>
+        <v>-3.41659624802161</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.693976501621503</v>
+        <v>-2.612257530637327</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.843755921629399</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.4291570564926</v>
+        <v>-17.59038876598846</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.954938648570545</v>
+        <v>-3.666122447882068</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.707239004400171</v>
+        <v>-2.627601709567831</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.701911995287704</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.26769286889947</v>
+        <v>-18.42812594792199</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.193244744895642</v>
+        <v>-3.907623066100546</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.785740452239161</v>
+        <v>-2.767820273002717</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.569948401488731</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.04513999624685</v>
+        <v>-19.20940912000199</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.421967275540597</v>
+        <v>-4.120058772010394</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.555473029858883</v>
+        <v>-2.549349015482834</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.447759353105951</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.94848270772027</v>
+        <v>-20.10278858901285</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.586301860809942</v>
+        <v>-4.272728115447761</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.571223070177479</v>
+        <v>-2.565243071132689</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.33353190374193</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16615851812069</v>
+        <v>-21.24520984267903</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.804720749118458</v>
+        <v>-4.473943717822249</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.536816498309423</v>
+        <v>-2.548157615924237</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.224868451162941</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.2540896073596</v>
+        <v>-22.34458360460161</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.855034468939212</v>
+        <v>-4.537912709506923</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.782074607443478</v>
+        <v>-2.786738650609011</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.125396724601274</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.65398408871116</v>
+        <v>-23.70539756197061</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.891915486044354</v>
+        <v>-4.587139768191813</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.787586466939844</v>
+        <v>-2.830807341974261</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.035169005863163</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01326624664768</v>
+        <v>-25.07281003997185</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.153630619850458</v>
+        <v>-4.854406038402809</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.917593034158184</v>
+        <v>-2.974482273359363</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.961987200213835</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.55741172070938</v>
+        <v>-26.6305584166861</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.253302321384519</v>
+        <v>-4.946549665802877</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.120104774514003</v>
+        <v>-3.218575167540504</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.907771042577552</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09298173640974</v>
+        <v>-28.15139959168953</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.503286751844437</v>
+        <v>-5.163043985593659</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.382134123588309</v>
+        <v>-3.43115488878161</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.879256201854678</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.79566190558191</v>
+        <v>-29.89714034490812</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.650876281779214</v>
+        <v>-5.32301883401671</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.620492589124773</v>
+        <v>-3.726648163919367</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.878561260797905</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.51807217513655</v>
+        <v>-31.63375576304604</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.807185285406582</v>
+        <v>-5.473855255056236</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.055458166435439</v>
+        <v>-4.149922314792371</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.903008455147014</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.16622290297291</v>
+        <v>-33.30900755776478</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.76272382495608</v>
+        <v>-5.449307187227999</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.46476283017632</v>
+        <v>-4.501385184578507</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.952630863845299</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.15948673371718</v>
+        <v>-35.31097776989879</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.977895822159848</v>
+        <v>-5.667097645000113</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.657808835577571</v>
+        <v>-4.735658851628354</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.016525426317006</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.98764353332444</v>
+        <v>-37.16783289733512</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.305975839070661</v>
+        <v>-5.983355312444847</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.244893879606252</v>
+        <v>-5.275978189906389</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.089329342097108</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.08224178806367</v>
+        <v>-39.26659450437802</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.293093013074403</v>
+        <v>-5.975866515219381</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.576783756644008</v>
+        <v>-5.615566341015079</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.150972620738677</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.33585915311851</v>
+        <v>-41.5633379149935</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.503525596649467</v>
+        <v>-6.177972394187106</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.092973980784741</v>
+        <v>-6.099916084644735</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.195594699557645</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.27822011041415</v>
+        <v>-43.5154788225119</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.614103186450684</v>
+        <v>-6.306735192635482</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.358590620837679</v>
+        <v>-6.322642340588179</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.198236933853154</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.3796656395396</v>
+        <v>-45.65300673826915</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.731305481489816</v>
+        <v>-6.442633296132598</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.452318416881597</v>
+        <v>-6.439962466352886</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.163440131530025</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.54844488218004</v>
+        <v>-47.84921435536302</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.873540259562328</v>
+        <v>-6.570126141205327</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.926364518174814</v>
+        <v>-6.903678740703982</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.060675096791967</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.69567419434301</v>
+        <v>-50.03828666740814</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.296002687659145</v>
+        <v>-6.964741241157792</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.361055157125803</v>
+        <v>-7.349249083316445</v>
       </c>
     </row>
   </sheetData>
